--- a/data/income_statement/1digit/size/F_IS_MICRO.xlsx
+++ b/data/income_statement/1digit/size/F_IS_MICRO.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>F-Construction</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>F-Construction</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,2078 +841,2346 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>10439828.68361</v>
+        <v>11610015.7606</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>10641233.98726</v>
+        <v>12015798.08037</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>12328302.45119</v>
+        <v>13895204.65603</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>12740710.32813</v>
+        <v>14625139.645</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>13850550.10065</v>
+        <v>16190200.36453</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>13553395.19308</v>
+        <v>16181377.90815</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>12934275.54419</v>
+        <v>16328524.97783</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>17410321.96255</v>
+        <v>21079626.35053</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>19937665.22517</v>
+        <v>24281472.01326</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>40957269.02269001</v>
+        <v>48406776.64114</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>46432390.93859001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>57529502.25822001</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>55042557.998</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>9897676.131119998</v>
+        <v>10974527.38902</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>10051198.26711</v>
+        <v>11303696.06699</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>11387896.56191</v>
+        <v>12821444.43661</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>11526845.49344</v>
+        <v>13261622.41079</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>12722548.41231</v>
+        <v>14842609.00324</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>12615154.27025</v>
+        <v>15046216.00769</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>12411875.81234</v>
+        <v>15541996.87076</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>16681117.99801</v>
+        <v>20079159.96497</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>18954307.99863</v>
+        <v>22973170.01762</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>39204151.89109001</v>
+        <v>46077331.96971</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>44313023.7178</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>54415508.30189</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>51551817.397</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>317205.3567</v>
+        <v>344708.2417300001</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>255669.20923</v>
+        <v>291250.47482</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>564526.8305</v>
+        <v>605278.76696</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>873564.9734900001</v>
+        <v>914022.7934499999</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>791132.3070800001</v>
+        <v>848769.39399</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>719313.8003</v>
+        <v>764360.5311499999</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>267333.93776</v>
+        <v>327940.7350800001</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>434527.42497</v>
+        <v>480850.1307399999</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>695207.4085</v>
+        <v>760925.8133999999</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>1058991.43882</v>
+        <v>1202717.82748</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>1311137.27225</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>1771283.53541</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>2086502.766</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>224947.19579</v>
+        <v>290780.12985</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>334366.51092</v>
+        <v>420851.5385600001</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>375879.05878</v>
+        <v>468481.45246</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>340299.8612</v>
+        <v>449494.44076</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>336869.38126</v>
+        <v>498821.9673</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>218927.12253</v>
+        <v>370801.36931</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>255065.79409</v>
+        <v>458587.37199</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>294676.53957</v>
+        <v>519616.25482</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>288149.81804</v>
+        <v>547376.18224</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>694125.6927799999</v>
+        <v>1126726.84395</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>808229.94854</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>1342710.42092</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>1404237.835</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>30560.9861</v>
+        <v>39480.35089</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>29043.14382</v>
+        <v>43296.48753999999</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>56721.77778</v>
+        <v>66495.92518000001</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>66794.2568</v>
+        <v>82137.14110000001</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>78735.67649</v>
+        <v>177687.21532</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>130046.58573</v>
+        <v>158854.33224</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>72145.6214</v>
+        <v>96472.11914</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>41270.42525</v>
+        <v>82090.03159</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>46727.89817</v>
+        <v>77917.22514999998</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>150663.67903</v>
+        <v>232479.11149</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>140370.52084</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>497524.7066200001</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>552845.343</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>24451.16317</v>
+        <v>32439.79181999999</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>22595.15496</v>
+        <v>33371.76385</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>45787.82341</v>
+        <v>52773.27481</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>62107.45664</v>
+        <v>75436.56629999999</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>74247.87139000001</v>
+        <v>171675.13689</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>126609.06966</v>
+        <v>151867.33338</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>65499.7244</v>
+        <v>87954.70160000001</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>31343.12655</v>
+        <v>57696.59764</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>30826.52166</v>
+        <v>58688.52843999999</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>130669.81761</v>
+        <v>201447.89961</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>119390.26135</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>187546.74928</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>515086.712</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>5032.8654</v>
+        <v>5802.42178</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>5176.90963</v>
+        <v>6255.733200000001</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>8924.352440000001</v>
+        <v>10547.90145</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>4149.6149</v>
+        <v>5419.84111</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>2635.24513</v>
+        <v>3001.1726</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>2487.23642</v>
+        <v>3407.52169</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>4362.76817</v>
+        <v>4556.58632</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>8193.20397</v>
+        <v>13891.36031</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>11822.64297</v>
+        <v>12773.9691</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>10922.34948</v>
+        <v>13580.36309</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>9517.346509999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>16343.2933</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>18896.651</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>1076.95753</v>
+        <v>1238.13729</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>1271.07923</v>
+        <v>3668.99049</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>2009.60193</v>
+        <v>3174.74892</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>537.18526</v>
+        <v>1280.73369</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>1852.55997</v>
+        <v>3010.90583</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>950.2796500000001</v>
+        <v>3579.47717</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>2283.12883</v>
+        <v>3960.83122</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>1734.09473</v>
+        <v>10502.07364</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>4078.73354</v>
+        <v>6454.727609999999</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>9071.511940000002</v>
+        <v>17450.84879</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>11462.91298</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>293634.66404</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>18861.98</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>10409267.69751</v>
+        <v>11570535.40971</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>10612190.84344</v>
+        <v>11972501.59283</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>12271580.67341</v>
+        <v>13828708.73085</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>12673916.07133</v>
+        <v>14543002.5039</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>13771814.42416</v>
+        <v>16012513.14921</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>13423348.60735</v>
+        <v>16022523.57591</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>12862129.92279</v>
+        <v>16232052.85869</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>17369051.53729999</v>
+        <v>20997536.31894</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>19890937.327</v>
+        <v>24203554.78811</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>40806605.34366</v>
+        <v>48174297.52965</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>46292020.41775</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>57031977.5516</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>54489712.655</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>8676767.95572</v>
+        <v>9556421.549420001</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>8784676.242109999</v>
+        <v>9798238.51</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>10151554.99896</v>
+        <v>11309062.27604</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>10761150.37683</v>
+        <v>12171928.0778</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>11983772.0635</v>
+        <v>13698067.17306</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>11650960.06254</v>
+        <v>13658778.50305</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>10894101.57399</v>
+        <v>13478159.46911</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>14891283.74132</v>
+        <v>17672067.24188</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>17887159.56697</v>
+        <v>21082350.56955</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>35997992.43223001</v>
+        <v>41755357.40319</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>41084494.02275</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>49639788.54684001</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>47009595.598</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>1629200.43332</v>
+        <v>1894760.10005</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>1600082.52994</v>
+        <v>1898061.03182</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>1772553.18686</v>
+        <v>2140694.15831</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>1831581.41828</v>
+        <v>2279242.79365</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>2431312.36462</v>
+        <v>3062545.55598</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>2170452.57011</v>
+        <v>2901925.06739</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>2230636.99622</v>
+        <v>3111846.23068</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>2583490.701360001</v>
+        <v>3600677.34778</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>2765787.30677</v>
+        <v>3939363.08756</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>8999598.77173</v>
+        <v>10998075.32901</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>11180056.11296</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>14015533.77461</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>11285897.582</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>3895279.983680001</v>
+        <v>4175936.760960001</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>4124072.02419</v>
+        <v>4446101.12646</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>4916945.14463</v>
+        <v>5294337.798849999</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>5452367.50137</v>
+        <v>5901603.1135</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>5800362.729379999</v>
+        <v>6312424.265190001</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>5636451.88895</v>
+        <v>6230737.295449999</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>4889278.87865</v>
+        <v>5693650.065040001</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>8044044.242660001</v>
+        <v>8874272.621509999</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>9905898.338160001</v>
+        <v>10877797.7265</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>15738156.62959</v>
+        <v>17558949.23108</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>17593544.00735</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>20477771.09148</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>21763941.189</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>3102549.73693</v>
+        <v>3427318.63103</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>3021862.02096</v>
+        <v>3403836.41793</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>3414818.43397</v>
+        <v>3815035.568780001</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>3443005.37035</v>
+        <v>3941850.65138</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>3691458.10106</v>
+        <v>4242572.34758</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>3786531.44005</v>
+        <v>4440355.351840001</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>3618184.900009999</v>
+        <v>4457747.84021</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>4174871.3807</v>
+        <v>5046598.67715</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>5111025.415399999</v>
+        <v>6089201.35353</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>10951740.52451</v>
+        <v>12757824.45251</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>11942972.32152</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>14623222.05291</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>13412497.881</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>49737.80179</v>
+        <v>58406.05738000001</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>38659.66702</v>
+        <v>50239.93379000001</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>47238.2335</v>
+        <v>58994.7501</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>34196.08683</v>
+        <v>49231.51927</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>60638.86843999999</v>
+        <v>80525.00431</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>57524.16343</v>
+        <v>85760.78836999999</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>156000.79911</v>
+        <v>214915.33318</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>88877.4166</v>
+        <v>150518.59544</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>104448.50664</v>
+        <v>175988.40196</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>308496.5064</v>
+        <v>440508.39059</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>367921.58092</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>523261.62784</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>547258.946</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>1732499.74179</v>
+        <v>2014113.86029</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>1827514.60133</v>
+        <v>2174263.08283</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>2120025.67445</v>
+        <v>2519646.45481</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>1912765.6945</v>
+        <v>2371074.4261</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>1788042.36066</v>
+        <v>2314445.97615</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>1772388.54481</v>
+        <v>2363745.07286</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>1968028.3488</v>
+        <v>2753893.38958</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>2477767.79598</v>
+        <v>3325469.077060001</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>2003777.76003</v>
+        <v>3121204.21856</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>4808612.911429999</v>
+        <v>6418940.12646</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>5207526.395</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>7392189.004759999</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>7480117.057</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>1521222.06236</v>
+        <v>2014531.73991</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>1622975.47495</v>
+        <v>2242145.79249</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>1949173.10388</v>
+        <v>2652748.80523</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>1782971.2694</v>
+        <v>3044586.2772</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>1740395.08754</v>
+        <v>2677324.50234</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>1721079.9347</v>
+        <v>2818620.1538</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>1983662.70483</v>
+        <v>3425827.205649999</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>2554132.82346</v>
+        <v>4202202.21191</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>2081074.93122</v>
+        <v>3885607.02092</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>4386289.42441</v>
+        <v>6515012.94033</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>4911772.59456</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>7419831.40215</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>7590102.545</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>3495.05605</v>
+        <v>4133.307299999999</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>8059.314640000001</v>
+        <v>11846.50214</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>10712.43819</v>
+        <v>17672.17182</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>6460.77842</v>
+        <v>8931.576050000001</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>4871.0841</v>
+        <v>5289.36761</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>3498.90323</v>
+        <v>6694.670190000001</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>3734.73168</v>
+        <v>4924.32188</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>2126.29298</v>
+        <v>4107.958140000001</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>4809.26263</v>
+        <v>8727.499830000001</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>13171.42799</v>
+        <v>16050.38228</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>11188.94326</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>13837.09277</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>6464.761</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>158457.40001</v>
+        <v>198362.4391</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>169469.77347</v>
+        <v>206322.66087</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>315690.39883</v>
+        <v>361913.40754</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>211915.34993</v>
+        <v>254766.75919</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>171780.19917</v>
+        <v>233504.18617</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>155231.84856</v>
+        <v>215792.65128</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>170584.82051</v>
+        <v>249148.50922</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>187612.48019</v>
+        <v>279828.19371</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>181827.24552</v>
+        <v>287293.85527</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>421925.2839</v>
+        <v>566634.4029499999</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>529004.24879</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>682576.5921900001</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>747045.694</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>1359269.6063</v>
+        <v>1812035.99351</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>1445446.38684</v>
+        <v>2023976.62948</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>1622770.26686</v>
+        <v>2273163.22587</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>1564595.14105</v>
+        <v>2780887.94196</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>1563743.80427</v>
+        <v>2438530.94856</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>1562349.18291</v>
+        <v>2596132.832330001</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>1809343.15264</v>
+        <v>3171754.37455</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>2364394.05029</v>
+        <v>3918266.06006</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>1894438.42307</v>
+        <v>3589585.66582</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>3951192.71252</v>
+        <v>5932328.1551</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>4371579.40251</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>6723417.717189999</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>6836592.09</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>211277.67943</v>
+        <v>-417.8796200000048</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>204539.12638</v>
+        <v>-67882.70966000001</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>170852.57057</v>
+        <v>-133102.35042</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>129794.4251</v>
+        <v>-673511.8510999999</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>47647.27312</v>
+        <v>-362878.5261899999</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>51308.61011000001</v>
+        <v>-454875.08094</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>-15634.35602999999</v>
+        <v>-671933.8160700001</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-76365.02748</v>
+        <v>-876733.1348499999</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>-77297.17119000001</v>
+        <v>-764402.8023599999</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>422323.48702</v>
+        <v>-96072.81386999998</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>295753.80044</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-27642.39739000002</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-109985.488</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>89427.34358999999</v>
+        <v>1304224.56242</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>101626.70528</v>
+        <v>1737558.31064</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>112832.8478</v>
+        <v>1682587.81415</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>94674.92758999999</v>
+        <v>1839911.73398</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>89459.99361</v>
+        <v>1485412.75227</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>142863.44516</v>
+        <v>1901791.76866</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>108254.72921</v>
+        <v>2538115.98547</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>122877.2168</v>
+        <v>3517349.81573</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>112489.76977</v>
+        <v>3408576.50245</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>577683.4834</v>
+        <v>7560069.69476</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>445896.9658300001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>4498275.64534</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>6456486.835</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>4854.4698</v>
+        <v>99772.98662000001</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>3864.56282</v>
+        <v>107666.87466</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>8398.4308</v>
+        <v>125069.13382</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>4962.042790000001</v>
+        <v>147681.45695</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>2548.66059</v>
+        <v>266253.92057</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>2729.88806</v>
+        <v>191794.75822</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>8132.802559999999</v>
+        <v>327236.72029</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>17078.93616</v>
+        <v>371858.12819</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>6222.319550000001</v>
+        <v>385948.3761000001</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>19099.45739</v>
+        <v>550830.81024</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>28166.20704</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>503136.7674900001</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>526624.4</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>1509.65531</v>
+        <v>274603.72538</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>783.26302</v>
+        <v>293412.58747</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>2934.79166</v>
+        <v>191294.5630499999</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>2112.92505</v>
+        <v>278571.5198</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>2881.32932</v>
+        <v>84721.86534</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>1821.76832</v>
+        <v>58565.32354</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>1881.7819</v>
+        <v>65980.11672000001</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>3023.53049</v>
+        <v>208219.52259</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>3658.00932</v>
+        <v>275105.13828</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>14575.39307</v>
+        <v>345422.75627</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>14544.53846</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>239709.08481</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>192951.727</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>17155.53697</v>
+        <v>146194.68654</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>14747.45138</v>
+        <v>132529.97735</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>14089.06807</v>
+        <v>160436.79714</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>15458.54578</v>
+        <v>353782.23318</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>14780.48601</v>
+        <v>164282.30306</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>15650.20863</v>
+        <v>284621.17791</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>16342.13031</v>
+        <v>391908.27239</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>17366.358</v>
+        <v>520196.43117</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>18911.27841</v>
+        <v>534334.2530100001</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>91966.90405</v>
+        <v>764149.24413</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>96162.51444</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>831272.0947400001</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>613498.838</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>2058.27847</v>
+        <v>3724.13313</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>2418.10634</v>
+        <v>3369.92239</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>2329.86538</v>
+        <v>2958.50326</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>1602.65304</v>
+        <v>2376.01638</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>1726.08361</v>
+        <v>2724.29441</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>730.7543499999999</v>
+        <v>5331.86418</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>886.68785</v>
+        <v>2320.60706</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>667.6364400000001</v>
+        <v>2530.17875</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>1083.58203</v>
+        <v>14372.27303</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>3680.03448</v>
+        <v>5903.559190000001</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>5298.705899999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>17547.89209</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>13701.074</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>3134.34376</v>
+        <v>78261.40237000001</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>1864.94544</v>
+        <v>81963.06078</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>2572.5295</v>
+        <v>233001.54312</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>2205.91614</v>
+        <v>218867.98267</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>2372.69293</v>
+        <v>204185.34053</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>31322.49822</v>
+        <v>235192.46643</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>1949.31847</v>
+        <v>16785.18043</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>2389.13648</v>
+        <v>13682.72633</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>2818.19972</v>
+        <v>16099.80883</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>6098.300929999999</v>
+        <v>23264.66059</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>8971.630660000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>35644.73571</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>34998.379</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>2146.58791</v>
+        <v>22358.96277</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>2106.201849999999</v>
+        <v>46490.77471</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>2814.26217</v>
+        <v>76270.73811000001</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>2125.44547</v>
+        <v>12483.08381</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>2373.63273</v>
+        <v>16554.38161</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>1635.98803</v>
+        <v>24531.56776000001</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>1602.95048</v>
+        <v>21064.73143</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>2155.184389999999</v>
+        <v>23902.45226</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>3219.630250000001</v>
+        <v>17745.85832</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>17797.2767</v>
+        <v>43241.80895000001</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>6861.56998</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>30786.18153</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>237171.605</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>22393.53343</v>
+        <v>507063.9712300001</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>36477.37802</v>
+        <v>550813.47805</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>42486.29251</v>
+        <v>707486.24046</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>17519.71972</v>
+        <v>442204.04502</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>22661.20174</v>
+        <v>485137.85026</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>46930.17958</v>
+        <v>838591.18816</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>30676.84337</v>
+        <v>1400938.87998</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>31361.19929</v>
+        <v>1561876.81445</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>27888.8427</v>
+        <v>1539976.00885</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>267311.86889</v>
+        <v>5169946.71426</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>127980.11982</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>1977409.42471</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>4115236.532</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>714.0576499999999</v>
+        <v>2158.04584</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>337.2757800000001</v>
+        <v>3111.26282</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>344.01673</v>
+        <v>2801.58982</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>65.10827999999999</v>
+        <v>1099.9822</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>462.43098</v>
+        <v>4691.046069999999</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>150.66091</v>
+        <v>3645.7007</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>115.75081</v>
+        <v>1418.21255</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>87.85124999999998</v>
+        <v>354.47751</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>92.80321999999998</v>
+        <v>3998.50728</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>113.74406</v>
+        <v>433.35238</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>308.93392</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>835.5703099999998</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>9038.798000000001</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>1892.68327</v>
+        <v>2076.64072</v>
       </c>
       <c r="D34" s="48" t="n">
-        <v>1007.43891</v>
+        <v>1138.14489</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>1453.48268</v>
+        <v>1937.93387</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>8383.43261</v>
+        <v>8586.424359999999</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>1367.08067</v>
+        <v>2048.8535</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>177.17065</v>
+        <v>860.70732</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>1067.52929</v>
+        <v>1293.05982</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>371.24072</v>
+        <v>1636.13744</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>555.9729699999999</v>
+        <v>1844.67225</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>1310.67591</v>
+        <v>2226.58921</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>1867.50784</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>3634.68347</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>1522.913</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>33568.19701999999</v>
+        <v>168010.00782</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>38020.08172</v>
+        <v>517062.22752</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>35410.1083</v>
+        <v>181330.7715</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>40239.13871000001</v>
+        <v>374258.98961</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>38286.39503</v>
+        <v>254812.89692</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>41714.32841</v>
+        <v>258657.01444</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>45598.93416999999</v>
+        <v>309170.2048</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>48376.14358</v>
+        <v>813092.9470400001</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>48039.1316</v>
+        <v>619151.6065</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>155729.82792</v>
+        <v>654650.1995399999</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>155735.23777</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>858299.21048</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>711742.569</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>89935.39164</v>
+        <v>464168.51336</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>63910.40991</v>
+        <v>620679.66964</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>97615.11963999999</v>
+        <v>807290.34747</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>52597.73150000001</v>
+        <v>620156.2044399999</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>137976.1152</v>
+        <v>774168.3633000001</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>77589.68033</v>
+        <v>894894.3220800001</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>104436.4708</v>
+        <v>1677127.02127</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>90956.28788999999</v>
+        <v>2436382.86946</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>78597.16678</v>
+        <v>2233999.15483</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>445946.68429</v>
+        <v>6770480.391280001</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>328659.82607</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>2980029.91758</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>5630154.483</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>3399.204609999999</v>
+        <v>4191.0294</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>2114.92294</v>
+        <v>4691.84825</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>2164.263840000001</v>
+        <v>3906.23292</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>2530.07343</v>
+        <v>4232.9455</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>2258.37371</v>
+        <v>3514.30339</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>1922.65927</v>
+        <v>4371.42355</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>1956.55893</v>
+        <v>3237.1241</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>1653.37523</v>
+        <v>5754.57557</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>1297.06105</v>
+        <v>4205.56336</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>5989.42151</v>
+        <v>8924.61707</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>6134.77252</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>10613.1438</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>12007.171</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>32719.13911</v>
+        <v>38931.72793</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>6882.37652</v>
+        <v>14968.82673</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>9865.649820000001</v>
+        <v>16132.97188</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>8104.04541</v>
+        <v>25061.36602</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>21599.75332</v>
+        <v>31263.7626</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>5491.29616</v>
+        <v>11920.88424</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>28979.55475</v>
+        <v>36615.83103000001</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>11004.38314</v>
+        <v>51237.19754</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>10424.05587</v>
+        <v>48698.40687</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>63230.92502999999</v>
+        <v>111447.34195</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>39518.15655</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>103136.23348</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>156747.019</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>1376.08242</v>
+        <v>3199.1372</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>733.8891900000001</v>
+        <v>1116.31356</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>917.7754200000001</v>
+        <v>20802.51692</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>514.58014</v>
+        <v>12179.11873</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>506.8736299999999</v>
+        <v>12394.7337</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>1107.77584</v>
+        <v>3693.65281</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>2465.5043</v>
+        <v>16910.38099</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>1587.86572</v>
+        <v>19000.33723</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>491.04885</v>
+        <v>12169.40042</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>1501.84198</v>
+        <v>30939.49861</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>1468.93299</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>24340.59447</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>12966.269</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>21131.89274</v>
+        <v>318560.55496</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>33070.44357999999</v>
+        <v>515066.76233</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>51324.86177</v>
+        <v>668510.24653</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>14073.93402</v>
+        <v>380496.13178</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>32974.9969</v>
+        <v>510588.9452</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>41955.50008</v>
+        <v>774150.8498099999</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>52420.06480000001</v>
+        <v>1495467.35267</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>56464.88607</v>
+        <v>1958375.52029</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>27852.85566</v>
+        <v>1750504.74845</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>287529.14067</v>
+        <v>6179734.332050001</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>124959.02657</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>2438927.85718</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>5148177.785</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>212.29969</v>
+        <v>1539.46175</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>267.66487</v>
+        <v>2577.95827</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>168.94161</v>
+        <v>1224.1861</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>154.01612</v>
+        <v>1082.53697</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>231.28264</v>
+        <v>4203.03003</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>51.06390999999999</v>
+        <v>3246.85758</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>183.27534</v>
+        <v>2254.24025</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>50.1796</v>
+        <v>5763.676090000001</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>227.49928</v>
+        <v>3442.00201</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>814.98585</v>
+        <v>1085.18178</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>60.31981</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>803.38261</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>9200.775</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>390.6816</v>
+        <v>434.15422</v>
       </c>
       <c r="D42" s="48" t="n">
-        <v>269.49228</v>
+        <v>374.03606</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>295.80943</v>
+        <v>681.8473200000001</v>
       </c>
       <c r="F42" s="48" t="n">
-        <v>6602.6558</v>
+        <v>6615.365880000001</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>69.62908000000002</v>
+        <v>141.52033</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>187.10202</v>
+        <v>238.0935</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>886.6185700000001</v>
+        <v>1109.39304</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>122.62461</v>
+        <v>206.39332</v>
       </c>
       <c r="K42" s="48" t="n">
-        <v>187.7011</v>
+        <v>334.59614</v>
       </c>
       <c r="L42" s="48" t="n">
-        <v>936.8580899999999</v>
+        <v>1417.92144</v>
       </c>
       <c r="M42" s="48" t="n">
-        <v>418.7861</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>635.9341899999999</v>
+      </c>
+      <c r="N42" s="48" t="n">
+        <v>332.334</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>30706.09147</v>
+        <v>97312.44789999998</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>20571.62053</v>
+        <v>81883.92444</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>32877.81775</v>
+        <v>96032.34580000001</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>20618.42658</v>
+        <v>190488.73956</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>80335.20592000001</v>
+        <v>212062.06805</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>26874.28305000001</v>
+        <v>97272.56059000001</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>17544.89411</v>
+        <v>121532.69919</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>20072.97352</v>
+        <v>396045.16942</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>38116.94497</v>
+        <v>414644.43758</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>85943.51116000001</v>
+        <v>436931.49838</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>156099.83153</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>401572.77185</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>290723.13</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>79958.42856</v>
+        <v>458371.01442</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>58777.02291000001</v>
+        <v>300674.3215899999</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>67057.03585000001</v>
+        <v>453182.78882</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>81191.43823</v>
+        <v>352434.36787</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>67409.40824</v>
+        <v>535609.4140700001</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>148090.36451</v>
+        <v>676889.20105</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>78974.43150000001</v>
+        <v>850245.0260999999</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>89954.78324999999</v>
+        <v>797016.6910699999</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>85411.44026999999</v>
+        <v>1022189.17965</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>463718.82559</v>
+        <v>2891634.86948</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>536998.2447799999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>2331283.97452</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>2440269.668</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>75021.90642</v>
+        <v>334119.199</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>55377.18199</v>
+        <v>232577.2815</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>62255.61896000001</v>
+        <v>254743.94542</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>77386.32146000001</v>
+        <v>296060.15399</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>63453.99151000001</v>
+        <v>452777.2165800001</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>143923.25879</v>
+        <v>589392.51813</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>74565.56239000001</v>
+        <v>562926.6442400001</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>87309.13826000001</v>
+        <v>723129.8717100001</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>82166.23879</v>
+        <v>871478.21696</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>443831.67947</v>
+        <v>2235618.77145</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>509338.07449</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>2134220.06584</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>2081770.434</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>4936.52214</v>
+        <v>124251.81542</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>3399.840920000001</v>
+        <v>68097.04009000001</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>4801.41689</v>
+        <v>198438.8434</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>3805.11677</v>
+        <v>56374.21388</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>3955.41673</v>
+        <v>82832.19748999999</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>4167.10572</v>
+        <v>87496.68292000001</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>4408.86911</v>
+        <v>287318.38186</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>2645.64499</v>
+        <v>73886.81935999999</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>3245.20148</v>
+        <v>150710.96269</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>19887.14612</v>
+        <v>656016.0980300001</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>27660.17029</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>197063.90868</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>358499.234</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>130811.20282</v>
+        <v>381267.1550199999</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>183478.39884</v>
+        <v>748321.6097499999</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>119013.26288</v>
+        <v>289012.32744</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>90680.18295999999</v>
+        <v>193809.3105700001</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-68278.25670999999</v>
+        <v>-187243.55129</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-31507.98956999999</v>
+        <v>-124866.83541</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-90790.52912000001</v>
+        <v>-661189.8779700001</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-134398.88182</v>
+        <v>-592782.8796500001</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-128816.00847</v>
+        <v>-612014.63439</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>90341.46053999999</v>
+        <v>-2198118.37987</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-124007.30458</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-840680.6441499999</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-1723922.804</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>66083.67803</v>
+        <v>187204.08514</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>74235.67708999998</v>
+        <v>337001.67998</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>89185.66707</v>
+        <v>361981.7188499999</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>81297.56290999999</v>
+        <v>275105.72407</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>91776.13492999999</v>
+        <v>402145.264</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>84762.85884</v>
+        <v>748521.2516699999</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>97259.93115999999</v>
+        <v>561642.1676700001</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>140508.6923</v>
+        <v>666101.41705</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>124216.25398</v>
+        <v>724909.1052399999</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>341291.32039</v>
+        <v>1271290.03693</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>427351.2082299999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>1533347.25546</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>1600553.41</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>7410.020020000002</v>
+        <v>22034.72707</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>7537.88341</v>
+        <v>22760.68077</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>3705.90777</v>
+        <v>12659.84558</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>3594.9009</v>
+        <v>13684.35965</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>7817.81977</v>
+        <v>23465.52511</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>6228.37062</v>
+        <v>13680.44472</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>3006.19527</v>
+        <v>34025.69751999999</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>7861.7467</v>
+        <v>52796.16282</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>3529.97278</v>
+        <v>30053.82272</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>8410.47169</v>
+        <v>18406.58162</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>12821.75429</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>86907.59565999999</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>97313.819</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>58673.65801</v>
+        <v>165169.35807</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>66697.79368</v>
+        <v>314240.99921</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>85479.75929999999</v>
+        <v>349321.87327</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>77702.66201</v>
+        <v>261421.36442</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>83958.31516</v>
+        <v>378679.73889</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>78534.48822000001</v>
+        <v>734840.8069499999</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>94253.73588999998</v>
+        <v>527616.4701500001</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>132646.9456</v>
+        <v>613305.25423</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>120686.2812</v>
+        <v>694855.2825200001</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>332880.8487</v>
+        <v>1252883.45531</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>414529.45394</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>1446439.6598</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>1503239.591</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>94966.69615</v>
+        <v>210234.4231</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>103342.34149</v>
+        <v>242406.77931</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>696899.40438</v>
+        <v>1521992.3059</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>114686.29334</v>
+        <v>394842.33712</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>109250.06219</v>
+        <v>372092.0380300001</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>274775.71855</v>
+        <v>1150678.78231</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>116649.59982</v>
+        <v>505687.99868</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>421103.4372100001</v>
+        <v>1184623.45263</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>154616.24285</v>
+        <v>650100.2461900001</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>645462.74477</v>
+        <v>1871410.61437</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>449660.59411</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>1391351.4446</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>1728794.716</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>2191.53321</v>
+        <v>5108.70584</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>2469.2854</v>
+        <v>4337.940769999999</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>2406.62873</v>
+        <v>4984.141</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>1865.87275</v>
+        <v>3256.66234</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>1154.67478</v>
+        <v>6871.1056</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>1729.81201</v>
+        <v>8493.95924</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>1843.12585</v>
+        <v>8398.124099999999</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>3306.00653</v>
+        <v>9367.108430000002</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>2388.35045</v>
+        <v>14676.88567</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>6853.747040000001</v>
+        <v>15287.44226</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>6080.55955</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>12325.854</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>17035.981</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>14482.90875</v>
+        <v>42326.07008999999</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>17664.54153</v>
+        <v>56033.9472</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>25185.80143</v>
+        <v>57822.90247</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>16941.5803</v>
+        <v>33814.27903</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>17072.44725</v>
+        <v>45210.91653</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>15489.85914</v>
+        <v>41380.99633000001</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>18258.67098</v>
+        <v>64948.10602</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>19888.25951</v>
+        <v>73844.19759000001</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>21757.9542</v>
+        <v>84394.60536</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>39148.62277</v>
+        <v>181703.03666</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>38193.80893</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>132746.92551</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>173811.275</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>78292.25418999999</v>
+        <v>162799.64717</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>83208.51456000001</v>
+        <v>182034.89134</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>669306.97422</v>
+        <v>1459185.26243</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>95878.84028999999</v>
+        <v>357771.39575</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>91022.94016</v>
+        <v>320010.0159000001</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>257556.0474</v>
+        <v>1100803.82674</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>96547.80299000001</v>
+        <v>432341.7685600001</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>397909.17117</v>
+        <v>1101412.14661</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>130469.9382</v>
+        <v>551028.7551599999</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>599460.3749599999</v>
+        <v>1674420.13545</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>405386.2256299999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>1246278.66509</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>1537947.46</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>101928.1847</v>
+        <v>358236.81706</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>154371.73444</v>
+        <v>842916.5104200001</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-488700.47443</v>
+        <v>-870998.2596100001</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>57291.45253</v>
+        <v>74072.69752000002</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-85752.18397</v>
+        <v>-157190.3253200001</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-221520.84928</v>
+        <v>-527024.3660500001</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-110180.19778</v>
+        <v>-605235.70898</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-414993.6267300001</v>
+        <v>-1111304.91523</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-159215.99734</v>
+        <v>-537205.7753400001</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-213829.96384</v>
+        <v>-2798238.95731</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-146316.69046</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-698684.83329</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-1852164.11</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>81273.38482000001</v>
+        <v>135381.00257</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>86809.61244</v>
+        <v>138961.6779</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>92008.44975</v>
+        <v>161671.77901</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>83604.38185999999</v>
+        <v>180754.79299</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>86884.41244999999</v>
+        <v>175377.8757100001</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>80124.26655</v>
+        <v>172969.81656</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>81982.05018000001</v>
+        <v>197240.64287</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>87381.40205</v>
+        <v>296144.24838</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>88772.59093999999</v>
+        <v>231824.41266</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>260984.12583</v>
+        <v>493918.60823</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>276907.8191500001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>506120.48476</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>594496.149</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>20654.79988</v>
+        <v>222855.81449</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>67562.122</v>
+        <v>703954.8325199999</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-580708.9241800001</v>
+        <v>-1032670.03862</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-26312.92933</v>
+        <v>-106682.0954700001</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-172636.59642</v>
+        <v>-332568.2010300001</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-301645.11583</v>
+        <v>-699994.1826100001</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-192162.24796</v>
+        <v>-802476.35185</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-502375.0287800001</v>
+        <v>-1407449.16361</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-247988.58828</v>
+        <v>-769030.188</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-474814.08967</v>
+        <v>-3292157.56554</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-423224.50961</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-1204805.31805</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-2446660.259</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>55926</v>
+        <v>63169</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>56087</v>
+        <v>64369</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>56797</v>
+        <v>65774</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>53503</v>
+        <v>63690</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>50972</v>
+        <v>62700</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>50253</v>
+        <v>63589</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>51491</v>
+        <v>67398</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>53726</v>
+        <v>71769</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>55710</v>
+        <v>76213</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>74592</v>
+        <v>88875</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>76470</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>94834</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>99220</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>